--- a/data/trans_orig/P1435_2011_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2011_2023-Edad-trans_orig.xlsx
@@ -742,7 +742,7 @@
         <v>453205</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>449466</v>
+        <v>448697</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>454146</v>
@@ -751,7 +751,7 @@
         <v>0.9979276558042384</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.98969559905261</v>
+        <v>0.988002679291516</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -763,19 +763,19 @@
         <v>423111</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>415558</v>
+        <v>416394</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>427169</v>
+        <v>427245</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9834530768188039</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.965897816129576</v>
+        <v>0.967841201134884</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9928858748817838</v>
+        <v>0.9930614241921122</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>859</v>
@@ -784,19 +784,19 @@
         <v>876316</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>868538</v>
+        <v>868970</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>880427</v>
+        <v>880386</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.990886085715903</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9820909132266491</v>
+        <v>0.9825801869903785</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9955342829612485</v>
+        <v>0.9954881266015368</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4680</v>
+        <v>5449</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002072344195761632</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01030440094738993</v>
+        <v>0.01199732070848328</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -834,19 +834,19 @@
         <v>7119</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3061</v>
+        <v>2985</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14672</v>
+        <v>13836</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01654692318119615</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007114125118216152</v>
+        <v>0.006938575807887854</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03410218387042443</v>
+        <v>0.03215879886511613</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -855,19 +855,19 @@
         <v>8060</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3949</v>
+        <v>3990</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15838</v>
+        <v>15406</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009113914284097017</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004465717038751549</v>
+        <v>0.00451187339846318</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01790908677335091</v>
+        <v>0.0174198130096215</v>
       </c>
     </row>
     <row r="6">
@@ -959,7 +959,7 @@
         <v>685216</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>681467</v>
+        <v>680446</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>687087</v>
@@ -968,7 +968,7 @@
         <v>0.9972773099658586</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9918207928646182</v>
+        <v>0.9903338511668505</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -980,19 +980,19 @@
         <v>595322</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>584857</v>
+        <v>585625</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>601635</v>
+        <v>601281</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9755301254626231</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9583808682033598</v>
+        <v>0.9596406363742477</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9858754297387923</v>
+        <v>0.9852948577153452</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1222</v>
@@ -1001,19 +1001,19 @@
         <v>1280538</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1269846</v>
+        <v>1270022</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1287354</v>
+        <v>1287335</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9870476770866515</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9788061980626456</v>
+        <v>0.9789413490509663</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.992301050306253</v>
+        <v>0.9922862087174904</v>
       </c>
     </row>
     <row r="8">
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5620</v>
+        <v>6641</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002722690034141416</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.008179207135381776</v>
+        <v>0.00966614883314976</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -1051,19 +1051,19 @@
         <v>14933</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8620</v>
+        <v>8974</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25398</v>
+        <v>24630</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02446987453737696</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01412457026120785</v>
+        <v>0.01470514228465491</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04161913179664049</v>
+        <v>0.0403593636257524</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -1072,19 +1072,19 @@
         <v>16804</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9988</v>
+        <v>10007</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27496</v>
+        <v>27320</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01295232291334848</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007698949693747004</v>
+        <v>0.00771379128250962</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02119380193735441</v>
+        <v>0.02105865094903368</v>
       </c>
     </row>
     <row r="9">
@@ -1189,19 +1189,19 @@
         <v>690593</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>679773</v>
+        <v>680813</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>698041</v>
+        <v>698307</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9715028994425099</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9562820246103507</v>
+        <v>0.9577450685935027</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9819803842213262</v>
+        <v>0.9823552842312254</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1299</v>
@@ -1210,19 +1210,19 @@
         <v>1372455</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1362667</v>
+        <v>1361964</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1380771</v>
+        <v>1379994</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9854548897827681</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9784270240117948</v>
+        <v>0.9779221169998116</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9914257880977295</v>
+        <v>0.9908680072134961</v>
       </c>
     </row>
     <row r="11">
@@ -1252,19 +1252,19 @@
         <v>20257</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12809</v>
+        <v>12543</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31077</v>
+        <v>30037</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02849710055749009</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01801961577867383</v>
+        <v>0.01764471576877463</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04371797538964929</v>
+        <v>0.04225493140649733</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -1273,19 +1273,19 @@
         <v>20257</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11941</v>
+        <v>12718</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30045</v>
+        <v>30748</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0145451102172319</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008574211902270546</v>
+        <v>0.009131992786503946</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02157297598820531</v>
+        <v>0.02207788300018857</v>
       </c>
     </row>
     <row r="12">
@@ -1377,19 +1377,19 @@
         <v>610635</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>604606</v>
+        <v>604694</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>613633</v>
+        <v>613629</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9935218646309384</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9837123716652493</v>
+        <v>0.9838556447148954</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9983986923050489</v>
+        <v>0.9983922688102602</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>507</v>
@@ -1398,19 +1398,19 @@
         <v>579504</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>564302</v>
+        <v>566535</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>589920</v>
+        <v>590603</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9404487427003044</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9157786296946878</v>
+        <v>0.9194028687674669</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9573538642521645</v>
+        <v>0.9584609237119838</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1051</v>
@@ -1419,19 +1419,19 @@
         <v>1190139</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1176285</v>
+        <v>1175377</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1201656</v>
+        <v>1201755</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9669511864491428</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9556951294861428</v>
+        <v>0.9549574979362598</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9763086953075267</v>
+        <v>0.9763885142977484</v>
       </c>
     </row>
     <row r="14">
@@ -1448,19 +1448,19 @@
         <v>3982</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10011</v>
+        <v>9923</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006478135369061635</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001601307694951211</v>
+        <v>0.001607731189739819</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01628762833475073</v>
+        <v>0.01614435528510459</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -1469,19 +1469,19 @@
         <v>36695</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26279</v>
+        <v>25596</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51897</v>
+        <v>49664</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05955125729969559</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04264613574783541</v>
+        <v>0.04153907628801649</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08422137030531222</v>
+        <v>0.08059713123253319</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -1490,19 +1490,19 @@
         <v>40677</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>29160</v>
+        <v>29061</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54531</v>
+        <v>55439</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03304881355085725</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02369130469247332</v>
+        <v>0.02361148570225162</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04430487051385733</v>
+        <v>0.0450425020637403</v>
       </c>
     </row>
     <row r="15">
@@ -1594,19 +1594,19 @@
         <v>426270</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>420968</v>
+        <v>421031</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>428392</v>
+        <v>428400</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9926433276218001</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9802982209326785</v>
+        <v>0.9804442242162483</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9975860741498545</v>
+        <v>0.9976042109971517</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>376</v>
@@ -1615,19 +1615,19 @@
         <v>414335</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>400433</v>
+        <v>401366</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>424886</v>
+        <v>424840</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9252670771475693</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8942220413247191</v>
+        <v>0.8963056169942065</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9488302188569682</v>
+        <v>0.9487279142133946</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>766</v>
@@ -1636,19 +1636,19 @@
         <v>840604</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>826533</v>
+        <v>826128</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>852017</v>
+        <v>851524</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9582497092381882</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9422088858082446</v>
+        <v>0.9417467960204484</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9712593354334726</v>
+        <v>0.9706977711676377</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>3159</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8461</v>
+        <v>8398</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007356672378199962</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002413925850145522</v>
+        <v>0.002395789002848289</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01970177906732147</v>
+        <v>0.01955577578375161</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -1686,19 +1686,19 @@
         <v>33465</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22914</v>
+        <v>22960</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47367</v>
+        <v>46434</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07473292285243072</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05116978114303183</v>
+        <v>0.05127208578660537</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1057779586752809</v>
+        <v>0.1036943830057935</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -1707,19 +1707,19 @@
         <v>36625</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25212</v>
+        <v>25705</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50696</v>
+        <v>51101</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04175029076181184</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02874066456652743</v>
+        <v>0.02930222883236204</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05779111419175539</v>
+        <v>0.05825320397955158</v>
       </c>
     </row>
     <row r="18">
@@ -1824,19 +1824,19 @@
         <v>343121</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>334393</v>
+        <v>336079</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>348118</v>
+        <v>348079</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9692784351061536</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9446236337113164</v>
+        <v>0.9493852502332419</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.983394059773697</v>
+        <v>0.9832851898066335</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>615</v>
@@ -1845,19 +1845,19 @@
         <v>652907</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>645236</v>
+        <v>643767</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>657954</v>
+        <v>657917</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9836161449100382</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9720607951944322</v>
+        <v>0.9698473545915385</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9912205274085343</v>
+        <v>0.9911639979238785</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>10875</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5878</v>
+        <v>5917</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19603</v>
+        <v>17917</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03072156489384636</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01660594022630308</v>
+        <v>0.01671481019336653</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05537636628868361</v>
+        <v>0.0506147497667578</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1908,19 +1908,19 @@
         <v>10875</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5828</v>
+        <v>5865</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18546</v>
+        <v>20015</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01638385508996177</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008779472591465694</v>
+        <v>0.008836002076121372</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02793920480556705</v>
+        <v>0.03015264540846091</v>
       </c>
     </row>
     <row r="21">
@@ -2012,7 +2012,7 @@
         <v>248789</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>244490</v>
+        <v>243754</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>249851</v>
@@ -2021,7 +2021,7 @@
         <v>0.995750620712339</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9785432516417698</v>
+        <v>0.9755994416377124</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -2033,19 +2033,19 @@
         <v>385571</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>379199</v>
+        <v>377996</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>387984</v>
+        <v>387994</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9912397918359426</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9748571112634548</v>
+        <v>0.9717651382050692</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9974429476181029</v>
+        <v>0.9974679043163699</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>568</v>
@@ -2054,19 +2054,19 @@
         <v>634361</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>627477</v>
+        <v>627606</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>637754</v>
+        <v>637517</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.993004008775082</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9822283726158402</v>
+        <v>0.9824309207006011</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9983154389851457</v>
+        <v>0.9979452321240224</v>
       </c>
     </row>
     <row r="23">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5361</v>
+        <v>6097</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.004249379287661037</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02145674835823023</v>
+        <v>0.02440055836228781</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -2104,19 +2104,19 @@
         <v>3408</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9780</v>
+        <v>10983</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008760208164057384</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00255705238189706</v>
+        <v>0.002532095683630099</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02514288873654515</v>
+        <v>0.02823486179493058</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -2125,19 +2125,19 @@
         <v>4469</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1076</v>
+        <v>1313</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11353</v>
+        <v>11224</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006995991224917997</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001684561014854209</v>
+        <v>0.002054767875977584</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01777162738415979</v>
+        <v>0.01756907929939567</v>
       </c>
     </row>
     <row r="24">
@@ -2229,19 +2229,19 @@
         <v>3415765</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3407825</v>
+        <v>3407883</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3421668</v>
+        <v>3420897</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9967858086469044</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9944687901281295</v>
+        <v>0.9944858884704536</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9985084217263602</v>
+        <v>0.9982834219682057</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3182</v>
@@ -2250,19 +2250,19 @@
         <v>3431556</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3404836</v>
+        <v>3407194</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3450444</v>
+        <v>3453927</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9643783931072394</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9568691022667432</v>
+        <v>0.9575318707150288</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9696864858975643</v>
+        <v>0.9706653923761921</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6380</v>
@@ -2271,19 +2271,19 @@
         <v>6847321</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6823143</v>
+        <v>6820125</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6870935</v>
+        <v>6868242</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.980276982688427</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9768155592986175</v>
+        <v>0.9763834999211203</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9836576211365268</v>
+        <v>0.9832720198367872</v>
       </c>
     </row>
     <row r="26">
@@ -2300,19 +2300,19 @@
         <v>11014</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5111</v>
+        <v>5882</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18954</v>
+        <v>18896</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003214191353095675</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001491578273639765</v>
+        <v>0.001716578031794266</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.005531209871870509</v>
+        <v>0.005514111529546365</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>116</v>
@@ -2321,19 +2321,19 @@
         <v>126753</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>107865</v>
+        <v>104382</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>153473</v>
+        <v>151115</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0356216068927606</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03031351410243513</v>
+        <v>0.02933460762380806</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0431308977332567</v>
+        <v>0.0424681292849714</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>127</v>
@@ -2342,19 +2342,19 @@
         <v>137767</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>114153</v>
+        <v>116846</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>161945</v>
+        <v>164963</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01972301731157295</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01634237886347341</v>
+        <v>0.01672798016321282</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02318444070138259</v>
+        <v>0.02361650007887983</v>
       </c>
     </row>
     <row r="27">
@@ -2689,7 +2689,7 @@
         <v>402667</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>389425</v>
+        <v>390681</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>407793</v>
@@ -2698,7 +2698,7 @@
         <v>0.9874296374187178</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9549565618891318</v>
+        <v>0.9580371982964233</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -2710,19 +2710,19 @@
         <v>344432</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>326839</v>
+        <v>329470</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>353345</v>
+        <v>354142</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9501247596056892</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.901595491477407</v>
+        <v>0.9088534949130638</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9747133379810464</v>
+        <v>0.9769113282607874</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>368</v>
@@ -2731,19 +2731,19 @@
         <v>747099</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>727577</v>
+        <v>729406</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>758212</v>
+        <v>758653</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9698736508012917</v>
+        <v>0.9698736508012916</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9445308806151972</v>
+        <v>0.9469049302799816</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.984301214022784</v>
+        <v>0.9848732359124169</v>
       </c>
     </row>
     <row r="5">
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18368</v>
+        <v>17112</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01257036258128231</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04504343811086833</v>
+        <v>0.04196280170357686</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -2781,19 +2781,19 @@
         <v>18080</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9167</v>
+        <v>8370</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35673</v>
+        <v>33042</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04987524039431075</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02528666201895348</v>
+        <v>0.02308867173921267</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09840450852259298</v>
+        <v>0.09114650508693606</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -2802,19 +2802,19 @@
         <v>23206</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12093</v>
+        <v>11652</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42728</v>
+        <v>40899</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03012634919870835</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01569878597721611</v>
+        <v>0.01512676408758303</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05546911938480349</v>
+        <v>0.05309506972001873</v>
       </c>
     </row>
     <row r="6">
@@ -2906,19 +2906,19 @@
         <v>472597</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>464381</v>
+        <v>464149</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>475678</v>
+        <v>475675</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9909976887308525</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9737694061203105</v>
+        <v>0.9732838155669322</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9974580521807396</v>
+        <v>0.9974531642776658</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>437</v>
@@ -2927,19 +2927,19 @@
         <v>477840</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>466998</v>
+        <v>466922</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>485627</v>
+        <v>485254</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9536149415103997</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9319767836104743</v>
+        <v>0.9318251552820613</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9691551069547242</v>
+        <v>0.9684097662643418</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>736</v>
@@ -2948,19 +2948,19 @@
         <v>950437</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>937140</v>
+        <v>939099</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>959549</v>
+        <v>959288</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9718439332707456</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9582473849364082</v>
+        <v>0.9602501302112749</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9811610118349423</v>
+        <v>0.980894634534673</v>
       </c>
     </row>
     <row r="8">
@@ -2977,19 +2977,19 @@
         <v>4293</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12509</v>
+        <v>12741</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009002311269147478</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002541947819260398</v>
+        <v>0.002546835722334004</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02623059387968821</v>
+        <v>0.02671618443306759</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -2998,19 +2998,19 @@
         <v>23243</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15456</v>
+        <v>15829</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34085</v>
+        <v>34161</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04638505848960015</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03084489304527591</v>
+        <v>0.03159023373565833</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06802321638952571</v>
+        <v>0.06817484471793918</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -3019,19 +3019,19 @@
         <v>27536</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18424</v>
+        <v>18685</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>40833</v>
+        <v>38874</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.0281560667292543</v>
+        <v>0.02815606672925429</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01883898816505773</v>
+        <v>0.0191053654653277</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04175261506359192</v>
+        <v>0.03974986978872514</v>
       </c>
     </row>
     <row r="9">
@@ -3123,19 +3123,19 @@
         <v>613909</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>606459</v>
+        <v>606352</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>618276</v>
+        <v>618444</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9888408655237152</v>
+        <v>0.9888408655237153</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9768406742531068</v>
+        <v>0.9766683178862403</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.995874472122771</v>
+        <v>0.9961455452511281</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>789</v>
@@ -3144,19 +3144,19 @@
         <v>581863</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>570631</v>
+        <v>569955</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>590929</v>
+        <v>591379</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9374641804384392</v>
+        <v>0.9374641804384394</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9193668699699074</v>
+        <v>0.9182783260052123</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9520706353881702</v>
+        <v>0.9527951194867316</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1329</v>
@@ -3165,19 +3165,19 @@
         <v>1195772</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1182681</v>
+        <v>1182465</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1205938</v>
+        <v>1205708</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9631558126950799</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9526110614433481</v>
+        <v>0.9524370904926671</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9713441384883843</v>
+        <v>0.9711585837449186</v>
       </c>
     </row>
     <row r="11">
@@ -3194,19 +3194,19 @@
         <v>6928</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2561</v>
+        <v>2393</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14378</v>
+        <v>14485</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01115913447628486</v>
+        <v>0.01115913447628487</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004125527877228949</v>
+        <v>0.003854454748871904</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02315932574689326</v>
+        <v>0.02333168211375957</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -3215,19 +3215,19 @@
         <v>38815</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29749</v>
+        <v>29299</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>50047</v>
+        <v>50723</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.06253581956156079</v>
+        <v>0.0625358195615608</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04792936461182987</v>
+        <v>0.04720488051326844</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08063313003009276</v>
+        <v>0.08172167399478777</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>61</v>
@@ -3236,19 +3236,19 @@
         <v>45743</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35577</v>
+        <v>35807</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>58834</v>
+        <v>59050</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.03684418730492012</v>
+        <v>0.03684418730492011</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02865586151161564</v>
+        <v>0.02884141625508146</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04738893855665217</v>
+        <v>0.04756290950733274</v>
       </c>
     </row>
     <row r="12">
@@ -3340,19 +3340,19 @@
         <v>683417</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>673300</v>
+        <v>673935</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>690345</v>
+        <v>690435</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9769811135576879</v>
+        <v>0.9769811135576876</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9625191880216989</v>
+        <v>0.963426965218127</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9868850689923379</v>
+        <v>0.9870133369794093</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1033</v>
@@ -3361,19 +3361,19 @@
         <v>668068</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>652941</v>
+        <v>655544</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>679029</v>
+        <v>679265</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9070907747361001</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8865524047049338</v>
+        <v>0.890086825470884</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9219731656922221</v>
+        <v>0.9222937127398749</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1682</v>
@@ -3382,19 +3382,19 @@
         <v>1351486</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1335482</v>
+        <v>1334355</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1365244</v>
+        <v>1366028</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9411361466546608</v>
+        <v>0.9411361466546609</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9299917288528374</v>
+        <v>0.9292070038491239</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9507167485660628</v>
+        <v>0.9512631705791307</v>
       </c>
     </row>
     <row r="14">
@@ -3411,19 +3411,19 @@
         <v>16102</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9174</v>
+        <v>9084</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26219</v>
+        <v>25584</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02301888644231237</v>
+        <v>0.02301888644231236</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01311493100766201</v>
+        <v>0.01298666302059086</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03748081197830106</v>
+        <v>0.036573034781873</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -3432,19 +3432,19 @@
         <v>68427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57466</v>
+        <v>57230</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>83554</v>
+        <v>80951</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09290922526389983</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07802683430777808</v>
+        <v>0.07770628726012505</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1134475952950663</v>
+        <v>0.1099131745291159</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>122</v>
@@ -3453,19 +3453,19 @@
         <v>84529</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>70771</v>
+        <v>69987</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>100533</v>
+        <v>101660</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.05886385334533916</v>
+        <v>0.05886385334533918</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04928325143393709</v>
+        <v>0.04873682942086915</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07000827114716257</v>
+        <v>0.07079299615087573</v>
       </c>
     </row>
     <row r="15">
@@ -3557,19 +3557,19 @@
         <v>596954</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>589641</v>
+        <v>589290</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>601885</v>
+        <v>601911</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9812524147941345</v>
+        <v>0.9812524147941343</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9692322179790293</v>
+        <v>0.968655147646087</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.989358903932488</v>
+        <v>0.9894016298017732</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>851</v>
@@ -3578,19 +3578,19 @@
         <v>512392</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>496925</v>
+        <v>498172</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>525061</v>
+        <v>525157</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.847443715090479</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8218633688560305</v>
+        <v>0.8239266609229167</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8683977405502719</v>
+        <v>0.8685561505528338</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1500</v>
@@ -3599,19 +3599,19 @@
         <v>1109345</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1091424</v>
+        <v>1092778</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1123981</v>
+        <v>1122831</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9145536545617373</v>
+        <v>0.9145536545617372</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8997793026486317</v>
+        <v>0.9008950289724532</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9266193766124828</v>
+        <v>0.9256717227547652</v>
       </c>
     </row>
     <row r="17">
@@ -3628,19 +3628,19 @@
         <v>11405</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6474</v>
+        <v>6448</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18718</v>
+        <v>19069</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01874758520586569</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01064109606751172</v>
+        <v>0.0105983701982265</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03076778202097073</v>
+        <v>0.03134485235391293</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>145</v>
@@ -3649,19 +3649,19 @@
         <v>92240</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>79571</v>
+        <v>79475</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>107707</v>
+        <v>106460</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1525562849095211</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.131602259449728</v>
+        <v>0.1314438494471662</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1781366311439695</v>
+        <v>0.176073339077083</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>158</v>
@@ -3670,19 +3670,19 @@
         <v>103646</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>89010</v>
+        <v>90160</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>121567</v>
+        <v>120213</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08544634543826295</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07338062338751704</v>
+        <v>0.07432827724523472</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1002206973513683</v>
+        <v>0.09910497102754671</v>
       </c>
     </row>
     <row r="18">
@@ -3774,19 +3774,19 @@
         <v>395427</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>389196</v>
+        <v>388744</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>399958</v>
+        <v>399992</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9734527002858612</v>
+        <v>0.9734527002858611</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9581137547411701</v>
+        <v>0.9570007492250399</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9846066826513452</v>
+        <v>0.9846904984366279</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>728</v>
@@ -3795,19 +3795,19 @@
         <v>385758</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>375091</v>
+        <v>375463</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>395167</v>
+        <v>394952</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.8791467945007402</v>
+        <v>0.8791467945007403</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8548362366389352</v>
+        <v>0.855684251342697</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9005886866746056</v>
+        <v>0.9001000268431488</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1282</v>
@@ -3816,19 +3816,19 @@
         <v>781186</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>769740</v>
+        <v>768511</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>791965</v>
+        <v>790741</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.9244819301173951</v>
+        <v>0.9244819301173952</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9109356925120858</v>
+        <v>0.9094818472033411</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9372377529150693</v>
+        <v>0.9357893855752668</v>
       </c>
     </row>
     <row r="20">
@@ -3845,19 +3845,19 @@
         <v>10784</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6253</v>
+        <v>6219</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17015</v>
+        <v>17467</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02654729971413886</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01539331734865501</v>
+        <v>0.01530950156337205</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04188624525883005</v>
+        <v>0.04299925077496009</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>98</v>
@@ -3866,19 +3866,19 @@
         <v>53029</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43620</v>
+        <v>43835</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>63696</v>
+        <v>63324</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1208532054992598</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09941131332539439</v>
+        <v>0.09989997315685095</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1451637633610641</v>
+        <v>0.1443157486573027</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>113</v>
@@ -3887,19 +3887,19 @@
         <v>63813</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>53034</v>
+        <v>54258</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>75259</v>
+        <v>76488</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.0755180698826048</v>
+        <v>0.07551806988260482</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06276224708493068</v>
+        <v>0.06421061442473314</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08906430748791401</v>
+        <v>0.09051815279665712</v>
       </c>
     </row>
     <row r="21">
@@ -3991,19 +3991,19 @@
         <v>305262</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>300445</v>
+        <v>300546</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>307998</v>
+        <v>308018</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9840885502453877</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9685574854897302</v>
+        <v>0.9688836829247148</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9929076460948975</v>
+        <v>0.9929734349451768</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>808</v>
@@ -4012,19 +4012,19 @@
         <v>424704</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>414372</v>
+        <v>414088</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>433861</v>
+        <v>433329</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9141099422287534</v>
+        <v>0.9141099422287535</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8918729106905837</v>
+        <v>0.8912617731297356</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9338189468335548</v>
+        <v>0.9326751128140344</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1258</v>
@@ -4033,19 +4033,19 @@
         <v>729966</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>718919</v>
+        <v>718389</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>739438</v>
+        <v>738821</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9421262614556224</v>
+        <v>0.9421262614556223</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.927869017372263</v>
+        <v>0.9271846870888786</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9543517981467673</v>
+        <v>0.9535555297159053</v>
       </c>
     </row>
     <row r="23">
@@ -4062,19 +4062,19 @@
         <v>4936</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2200</v>
+        <v>2180</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9753</v>
+        <v>9652</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01591144975461228</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007092353905102672</v>
+        <v>0.007026565054823132</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03144251451026973</v>
+        <v>0.03111631707528527</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>73</v>
@@ -4083,19 +4083,19 @@
         <v>39905</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>30748</v>
+        <v>31280</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>50237</v>
+        <v>50521</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.08589005777124648</v>
+        <v>0.08589005777124645</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06618105316644504</v>
+        <v>0.06732488718596558</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1081270893094153</v>
+        <v>0.1087382268702641</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>81</v>
@@ -4104,19 +4104,19 @@
         <v>44841</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>35369</v>
+        <v>35986</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>55888</v>
+        <v>56418</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05787373854437775</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04564820185323232</v>
+        <v>0.04644447028409472</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0721309826277368</v>
+        <v>0.07281531291112157</v>
       </c>
     </row>
     <row r="24">
@@ -4208,19 +4208,19 @@
         <v>3470234</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3451242</v>
+        <v>3451386</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3483641</v>
+        <v>3484197</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.9831225498896781</v>
+        <v>0.9831225498896778</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9777422402798055</v>
+        <v>0.9777828645209837</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9869208933519537</v>
+        <v>0.9870782885925955</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4844</v>
@@ -4229,19 +4229,19 @@
         <v>3395057</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3360947</v>
+        <v>3363986</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3421609</v>
+        <v>3422988</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.9104967318640419</v>
+        <v>0.9104967318640418</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9013491632146399</v>
+        <v>0.9021641587499494</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.917617580266342</v>
+        <v>0.9179875042417182</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8155</v>
@@ -4250,19 +4250,19 @@
         <v>6865290</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6827562</v>
+        <v>6829127</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6899276</v>
+        <v>6898057</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.94581415764254</v>
+        <v>0.9458141576425401</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9406164512081905</v>
+        <v>0.9408319586964137</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9504962021620234</v>
+        <v>0.9503282914556538</v>
       </c>
     </row>
     <row r="26">
@@ -4279,19 +4279,19 @@
         <v>59574</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46167</v>
+        <v>45611</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>78566</v>
+        <v>78422</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01687745011032194</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01307910664804666</v>
+        <v>0.01292171140740438</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02225775972019574</v>
+        <v>0.02221713547901617</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>510</v>
@@ -4300,19 +4300,19 @@
         <v>333739</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>307187</v>
+        <v>305808</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>367849</v>
+        <v>364810</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08950326813595813</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08238241973365806</v>
+        <v>0.08201249575828187</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0986508367853601</v>
+        <v>0.0978358412500507</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>572</v>
@@ -4321,19 +4321,19 @@
         <v>393314</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>359328</v>
+        <v>360547</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>431042</v>
+        <v>429477</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.05418584235746003</v>
+        <v>0.05418584235746004</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04950379783797668</v>
+        <v>0.04967170854434656</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05938354879180969</v>
+        <v>0.05916804130358666</v>
       </c>
     </row>
     <row r="27">
